--- a/biology/Botanique/Forme_téléomorphe/Forme_téléomorphe.xlsx
+++ b/biology/Botanique/Forme_téléomorphe/Forme_téléomorphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Forme_t%C3%A9l%C3%A9omorphe</t>
+          <t>Forme_téléomorphe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forme téléomorphe désigne la forme ou le stade de reproduction sexué d'un champignon, quand il existe aussi une forme (ou un stade) asexuée, dite anamorphe.
 Le qualificatif holomorphe désigne les deux stades à la fois.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Forme_t%C3%A9l%C3%A9omorphe</t>
+          <t>Forme_téléomorphe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et enjeux de cette classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les champignons ont été classés depuis plusieurs siècles essentiellement sur la base des caractéristiques physiques de leurs organes reproducteurs (pied, chapeau, etc.), qui sont relativement stables au cours de l'évolution et dans une population (alors que la forme, taille et couleur du mycélium peuvent être plus variables).
 Mais de nombreux champignons ne se reproduisent que de manière asexuée. Ces espèces, difficiles à classer, sont le plus souvent des ascomycètes et des basidiomycètes. 
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Forme_t%C3%A9l%C3%A9omorphe</t>
+          <t>Forme_téléomorphe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Beauveria bassiana (champignon cosmopolite des sols et capable d'infecter divers insectes, en se comportant en parasite vis-à-vis d'eux, est la forme à reproduction asexuée (anamorphe) du champignon Cordyceps bassiana, forme téléomorphe reproductrice sexuée, qui n'a pu être mise en évidence qu'en 2001.
 </t>
